--- a/cypress/fixtures/LMS/users_Teacher_15-05-2023 10_19_39.xlsx
+++ b/cypress/fixtures/LMS/users_Teacher_15-05-2023 10_19_39.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Cypress_Backup_Framework\E-sense_Cypress_Automation\cypress\fixtures\LMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,10 +75,10 @@
     <t>kotturapalli</t>
   </si>
   <si>
-    <t>Manohara</t>
-  </si>
-  <si>
     <t>manoharareddy366@gmail.com</t>
+  </si>
+  <si>
+    <t>manohara</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -483,10 +483,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="3">
         <v>35606</v>
